--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 1 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 1 л.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>№Поз</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>24/08/2019 twist</t>
+  </si>
+  <si>
+    <t>Вес, гр</t>
   </si>
 </sst>
 </file>
@@ -793,7 +796,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1023,18 +1026,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1048,18 +1051,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1370,8 +1379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1391,29 +1400,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1475,7 +1484,7 @@
       <c r="A5" s="41">
         <v>1</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="95" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="73" t="s">
@@ -1499,7 +1508,7 @@
       <c r="L5" s="69"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="104">
+      <c r="A6" s="93">
         <f>A5+1</f>
         <v>2</v>
       </c>
@@ -1527,7 +1536,7 @@
       <c r="L6" s="70"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="104">
+      <c r="A7" s="93">
         <f t="shared" ref="A7:A21" si="1">A6+1</f>
         <v>3</v>
       </c>
@@ -1555,7 +1564,7 @@
       <c r="L7" s="70"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="104">
+      <c r="A8" s="93">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -1583,7 +1592,7 @@
       <c r="L8" s="70"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="104">
+      <c r="A9" s="93">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1613,7 +1622,7 @@
       <c r="L9" s="70"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="104">
+      <c r="A10" s="93">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -1643,7 +1652,7 @@
       <c r="L10" s="70"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="104">
+      <c r="A11" s="93">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -1671,7 +1680,7 @@
       <c r="L11" s="70"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="104">
+      <c r="A12" s="93">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -1699,7 +1708,7 @@
       <c r="L12" s="70"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="104">
+      <c r="A13" s="93">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -1728,7 +1737,7 @@
       <c r="M13" s="26"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A14" s="104">
+      <c r="A14" s="93">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -1738,7 +1747,7 @@
       <c r="C14" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="105">
+      <c r="D14" s="94">
         <v>10</v>
       </c>
       <c r="E14" s="12">
@@ -1757,7 +1766,7 @@
       <c r="M14" s="26"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A15" s="104">
+      <c r="A15" s="93">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -1789,7 +1798,7 @@
       <c r="L15" s="70"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A16" s="104">
+      <c r="A16" s="93">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -1819,7 +1828,7 @@
       <c r="L16" s="70"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A17" s="104">
+      <c r="A17" s="93">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -1849,7 +1858,7 @@
       <c r="L17" s="70"/>
     </row>
     <row r="18" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A18" s="104">
+      <c r="A18" s="93">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -1879,7 +1888,7 @@
       <c r="L18" s="89"/>
     </row>
     <row r="19" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A19" s="104">
+      <c r="A19" s="93">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -1907,7 +1916,7 @@
       <c r="L19" s="89"/>
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A20" s="104">
+      <c r="A20" s="93">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -1935,14 +1944,14 @@
       <c r="L20" s="89"/>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A21" s="109">
+      <c r="A21" s="98">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B21" s="107" t="s">
+      <c r="B21" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="108" t="s">
+      <c r="C21" s="97" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="45">
@@ -2020,7 +2029,9 @@
       <c r="I24" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="65"/>
+      <c r="J24" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="K24" s="65"/>
       <c r="L24" s="65"/>
     </row>
@@ -2048,7 +2059,7 @@
         <f>1-G25</f>
         <v>0.72</v>
       </c>
-      <c r="J25" s="66"/>
+      <c r="J25" s="110"/>
       <c r="K25" s="58"/>
       <c r="L25" s="58"/>
     </row>
@@ -2072,14 +2083,16 @@
         <v>3.5234175824175824E-2</v>
       </c>
       <c r="H26" s="79">
-        <f t="shared" ref="H26:I32" si="3">H25-F26</f>
+        <f t="shared" ref="H26:J32" si="3">H25-F26</f>
         <v>12462738</v>
       </c>
       <c r="I26" s="80">
         <f t="shared" si="3"/>
         <v>0.6847658241758241</v>
       </c>
-      <c r="J26" s="1"/>
+      <c r="J26" s="110">
+        <v>437</v>
+      </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
@@ -2110,7 +2123,9 @@
         <f t="shared" si="3"/>
         <v>0.66924846153846151</v>
       </c>
-      <c r="J27" s="66"/>
+      <c r="J27" s="110">
+        <v>442</v>
+      </c>
       <c r="K27" s="58"/>
       <c r="L27" s="58"/>
     </row>
@@ -2141,7 +2156,7 @@
         <f t="shared" si="3"/>
         <v>0.63401428571428564</v>
       </c>
-      <c r="J28" s="66"/>
+      <c r="J28" s="110"/>
       <c r="K28" s="66"/>
       <c r="L28" s="1"/>
     </row>
@@ -2172,7 +2187,7 @@
         <f t="shared" si="3"/>
         <v>0.61849692307692306</v>
       </c>
-      <c r="J29" s="66"/>
+      <c r="J29" s="110"/>
       <c r="K29" s="67"/>
       <c r="L29" s="1"/>
     </row>
@@ -2205,7 +2220,7 @@
         <f t="shared" si="3"/>
         <v>0.55400598901098896</v>
       </c>
-      <c r="J30" s="66"/>
+      <c r="J30" s="110"/>
       <c r="K30" s="66"/>
       <c r="L30" s="1"/>
     </row>
@@ -2236,7 +2251,9 @@
         <f t="shared" si="3"/>
         <v>0.51559186813186808</v>
       </c>
-      <c r="J31" s="66"/>
+      <c r="J31" s="110">
+        <v>437</v>
+      </c>
       <c r="K31" s="66"/>
       <c r="L31" s="1"/>
     </row>
@@ -2267,7 +2284,9 @@
         <f t="shared" si="3"/>
         <v>0.45055098901098894</v>
       </c>
-      <c r="J32" s="66"/>
+      <c r="J32" s="110">
+        <v>441</v>
+      </c>
       <c r="K32" s="66"/>
       <c r="L32" s="1"/>
     </row>
@@ -2295,10 +2314,12 @@
         <v>6818438</v>
       </c>
       <c r="I33" s="80">
-        <f t="shared" ref="I33" si="5">I32-G33</f>
+        <f t="shared" ref="I33:J33" si="5">I32-G33</f>
         <v>0.37463945054945047</v>
       </c>
-      <c r="J33" s="66"/>
+      <c r="J33" s="110">
+        <v>440</v>
+      </c>
       <c r="K33" s="66"/>
       <c r="L33" s="1"/>
     </row>
@@ -2326,10 +2347,12 @@
         <v>5969558</v>
       </c>
       <c r="I34" s="80">
-        <f t="shared" ref="I34" si="7">I33-G34</f>
+        <f t="shared" ref="I34:J34" si="7">I33-G34</f>
         <v>0.32799769230769221</v>
       </c>
-      <c r="J34" s="66"/>
+      <c r="J34" s="110">
+        <v>441</v>
+      </c>
       <c r="K34" s="66"/>
       <c r="L34" s="1"/>
     </row>
@@ -2343,7 +2366,7 @@
       <c r="G35" s="24"/>
       <c r="H35" s="79"/>
       <c r="I35" s="80"/>
-      <c r="J35" s="66"/>
+      <c r="J35" s="110"/>
       <c r="K35" s="66"/>
       <c r="L35" s="1"/>
     </row>
@@ -2357,7 +2380,7 @@
       <c r="G36" s="24"/>
       <c r="H36" s="79"/>
       <c r="I36" s="80"/>
-      <c r="J36" s="66"/>
+      <c r="J36" s="110"/>
       <c r="K36" s="66"/>
       <c r="L36" s="1"/>
     </row>
@@ -2371,7 +2394,7 @@
       <c r="G37" s="24"/>
       <c r="H37" s="79"/>
       <c r="I37" s="80"/>
-      <c r="J37" s="66"/>
+      <c r="J37" s="110"/>
       <c r="K37" s="66"/>
       <c r="L37" s="1"/>
     </row>
@@ -2385,7 +2408,7 @@
       <c r="G38" s="24"/>
       <c r="H38" s="79"/>
       <c r="I38" s="80"/>
-      <c r="J38" s="1"/>
+      <c r="J38" s="110"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
@@ -2416,7 +2439,7 @@
         <f>1-G39</f>
         <v>0.32799769230769238</v>
       </c>
-      <c r="J39" s="68"/>
+      <c r="J39" s="111"/>
       <c r="K39" s="68"/>
       <c r="L39" s="68"/>
     </row>
@@ -2433,12 +2456,12 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A43" s="94" t="s">
+      <c r="A43" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2627,9 +2650,9 @@
     </row>
     <row r="59" spans="1:10" ht="15.6">
       <c r="A59" s="1"/>
-      <c r="B59" s="96"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="97"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="108"/>
       <c r="E59" s="60"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -2658,8 +2681,8 @@
       <c r="F61" s="57"/>
       <c r="G61" s="57"/>
       <c r="H61" s="56"/>
-      <c r="I61" s="95"/>
-      <c r="J61" s="95"/>
+      <c r="I61" s="104"/>
+      <c r="J61" s="104"/>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="55"/>
@@ -2670,8 +2693,8 @@
       <c r="F62" s="58"/>
       <c r="G62" s="58"/>
       <c r="H62" s="58"/>
-      <c r="I62" s="95"/>
-      <c r="J62" s="95"/>
+      <c r="I62" s="104"/>
+      <c r="J62" s="104"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1"/>
@@ -2696,6 +2719,11 @@
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A44:B44"/>
@@ -2703,11 +2731,6 @@
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="I60:J60"/>
     <mergeCell ref="I61:J61"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 1 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 1 л.xlsx
@@ -923,8 +923,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1040,6 +1038,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1063,12 +1073,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1380,7 +1384,7 @@
   <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1400,29 +1404,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1484,10 +1488,10 @@
       <c r="A5" s="41">
         <v>1</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="71" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="43">
@@ -1496,7 +1500,7 @@
       <c r="E5" s="43">
         <v>26</v>
       </c>
-      <c r="F5" s="74"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="43">
         <f>E5-F5</f>
         <v>26</v>
@@ -1505,17 +1509,17 @@
       <c r="I5" s="46"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
-      <c r="L5" s="69"/>
+      <c r="L5" s="67"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="93">
+      <c r="A6" s="91">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="90" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="48">
@@ -1524,7 +1528,7 @@
       <c r="E6" s="9">
         <v>26</v>
       </c>
-      <c r="F6" s="75"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G8" si="0">E6-F6</f>
         <v>26</v>
@@ -1533,17 +1537,17 @@
       <c r="I6" s="47"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="70"/>
+      <c r="L6" s="68"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="93">
+      <c r="A7" s="91">
         <f t="shared" ref="A7:A21" si="1">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="90" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="48">
@@ -1552,7 +1556,7 @@
       <c r="E7" s="9">
         <v>32</v>
       </c>
-      <c r="F7" s="75"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1561,17 +1565,17 @@
       <c r="I7" s="47"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="70"/>
+      <c r="L7" s="68"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="93">
+      <c r="A8" s="91">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="90" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="48">
@@ -1580,7 +1584,7 @@
       <c r="E8" s="9">
         <v>32</v>
       </c>
-      <c r="F8" s="75"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1589,17 +1593,17 @@
       <c r="I8" s="47"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="70"/>
+      <c r="L8" s="68"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="93">
+      <c r="A9" s="91">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="90" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="48">
@@ -1608,7 +1612,7 @@
       <c r="E9" s="9">
         <v>81</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="73">
         <v>20</v>
       </c>
       <c r="G9" s="9">
@@ -1619,17 +1623,17 @@
       <c r="I9" s="48"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="70"/>
+      <c r="L9" s="68"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="93">
+      <c r="A10" s="91">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="90" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="48">
@@ -1638,7 +1642,7 @@
       <c r="E10" s="9">
         <v>81</v>
       </c>
-      <c r="F10" s="75">
+      <c r="F10" s="73">
         <v>42</v>
       </c>
       <c r="G10" s="9">
@@ -1649,17 +1653,17 @@
       <c r="I10" s="48"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="70"/>
+      <c r="L10" s="68"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="93">
+      <c r="A11" s="91">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="90" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="48">
@@ -1668,7 +1672,7 @@
       <c r="E11" s="9">
         <v>24</v>
       </c>
-      <c r="F11" s="75"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="9">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -1677,17 +1681,17 @@
       <c r="I11" s="47"/>
       <c r="J11" s="9"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="70"/>
+      <c r="L11" s="68"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="93">
+      <c r="A12" s="91">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="90" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="48">
@@ -1696,7 +1700,7 @@
       <c r="E12" s="9">
         <v>24</v>
       </c>
-      <c r="F12" s="75"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="9">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -1705,17 +1709,17 @@
       <c r="I12" s="47"/>
       <c r="J12" s="9"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="70"/>
+      <c r="L12" s="68"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="93">
+      <c r="A13" s="91">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="90" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="48">
@@ -1724,7 +1728,7 @@
       <c r="E13" s="9">
         <v>36</v>
       </c>
-      <c r="F13" s="75"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="9">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -1733,27 +1737,27 @@
       <c r="I13" s="48"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="70"/>
+      <c r="L13" s="68"/>
       <c r="M13" s="26"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A14" s="93">
+      <c r="A14" s="91">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="94">
+      <c r="D14" s="92">
         <v>10</v>
       </c>
       <c r="E14" s="12">
         <v>10</v>
       </c>
-      <c r="F14" s="75"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="9">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -1762,18 +1766,18 @@
       <c r="I14" s="48"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="70"/>
+      <c r="L14" s="68"/>
       <c r="M14" s="26"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A15" s="93">
+      <c r="A15" s="91">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="90" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="48">
@@ -1782,7 +1786,7 @@
       <c r="E15" s="9">
         <v>30</v>
       </c>
-      <c r="F15" s="75">
+      <c r="F15" s="73">
         <v>5</v>
       </c>
       <c r="G15" s="9">
@@ -1795,17 +1799,17 @@
       <c r="I15" s="48"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="70"/>
+      <c r="L15" s="68"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A16" s="93">
+      <c r="A16" s="91">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="90" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="48">
@@ -1814,7 +1818,7 @@
       <c r="E16" s="9">
         <v>30</v>
       </c>
-      <c r="F16" s="75">
+      <c r="F16" s="73">
         <v>7</v>
       </c>
       <c r="G16" s="9">
@@ -1825,17 +1829,17 @@
       <c r="I16" s="48"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="70"/>
+      <c r="L16" s="68"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A17" s="93">
+      <c r="A17" s="91">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="90" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="48">
@@ -1844,7 +1848,7 @@
       <c r="E17" s="9">
         <v>101</v>
       </c>
-      <c r="F17" s="75">
+      <c r="F17" s="73">
         <v>60</v>
       </c>
       <c r="G17" s="9">
@@ -1855,103 +1859,103 @@
       <c r="I17" s="48"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="70"/>
+      <c r="L17" s="68"/>
     </row>
     <row r="18" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A18" s="93">
+      <c r="A18" s="91">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="88">
+      <c r="D18" s="86">
         <v>140</v>
       </c>
-      <c r="E18" s="85">
+      <c r="E18" s="83">
         <v>140</v>
       </c>
-      <c r="F18" s="86">
+      <c r="F18" s="84">
         <v>51</v>
       </c>
-      <c r="G18" s="85">
+      <c r="G18" s="83">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="H18" s="87"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="89"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="87"/>
     </row>
     <row r="19" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A19" s="93">
+      <c r="A19" s="91">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="88">
+      <c r="D19" s="86">
         <v>32</v>
       </c>
-      <c r="E19" s="85">
+      <c r="E19" s="83">
         <v>32</v>
       </c>
-      <c r="F19" s="86"/>
-      <c r="G19" s="85">
+      <c r="F19" s="84"/>
+      <c r="G19" s="83">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="H19" s="87"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="89"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="87"/>
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A20" s="93">
+      <c r="A20" s="91">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="88">
+      <c r="D20" s="86">
         <v>22</v>
       </c>
-      <c r="E20" s="85">
+      <c r="E20" s="83">
         <v>22</v>
       </c>
-      <c r="F20" s="86"/>
-      <c r="G20" s="85">
+      <c r="F20" s="84"/>
+      <c r="G20" s="83">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="H20" s="87"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="89"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="87"/>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A21" s="98">
+      <c r="A21" s="96">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B21" s="96" t="s">
+      <c r="B21" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="97" t="s">
+      <c r="C21" s="95" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="45">
@@ -1960,22 +1964,22 @@
       <c r="E21" s="45">
         <v>30</v>
       </c>
-      <c r="F21" s="77">
+      <c r="F21" s="75">
         <v>1</v>
       </c>
       <c r="G21" s="45">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="H21" s="82"/>
-      <c r="I21" s="83"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="81"/>
       <c r="J21" s="45"/>
       <c r="K21" s="45"/>
-      <c r="L21" s="84"/>
+      <c r="L21" s="82"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="62"/>
-      <c r="B22" s="61"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1987,7 +1991,7 @@
     </row>
     <row r="23" spans="1:12" ht="16.2" thickBot="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="61" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="13"/>
@@ -1997,9 +2001,9 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
     </row>
     <row r="24" spans="1:12" ht="79.8" thickBot="1">
       <c r="A24" s="36" t="s">
@@ -2032,65 +2036,65 @@
       <c r="J24" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="71">
+      <c r="A25" s="69">
         <f>E5*700000</f>
         <v>18200000</v>
       </c>
       <c r="B25" s="34"/>
-      <c r="C25" s="78"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79">
+      <c r="E25" s="77"/>
+      <c r="F25" s="77">
         <v>5096000</v>
       </c>
       <c r="G25" s="35">
         <f>F25/A$25</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H25" s="79">
+      <c r="H25" s="77">
         <f>A25-F25</f>
         <v>13104000</v>
       </c>
-      <c r="I25" s="80">
+      <c r="I25" s="78">
         <f>1-G25</f>
         <v>0.72</v>
       </c>
-      <c r="J25" s="110"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1">
       <c r="A26" s="44"/>
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="79">
         <v>43591</v>
       </c>
-      <c r="D26" s="81"/>
-      <c r="E26" s="91">
+      <c r="D26" s="79"/>
+      <c r="E26" s="89">
         <v>5475560</v>
       </c>
-      <c r="F26" s="91">
+      <c r="F26" s="89">
         <v>641262</v>
       </c>
       <c r="G26" s="35">
         <f>F26/A25</f>
         <v>3.5234175824175824E-2</v>
       </c>
-      <c r="H26" s="79">
-        <f t="shared" ref="H26:J32" si="3">H25-F26</f>
+      <c r="H26" s="77">
+        <f t="shared" ref="H26:I32" si="3">H25-F26</f>
         <v>12462738</v>
       </c>
-      <c r="I26" s="80">
+      <c r="I26" s="78">
         <f t="shared" si="3"/>
         <v>0.6847658241758241</v>
       </c>
-      <c r="J26" s="110">
+      <c r="J26" s="97">
         <v>437</v>
       </c>
       <c r="K26" s="1"/>
@@ -2115,49 +2119,49 @@
         <f>F27/A25</f>
         <v>1.5517362637362638E-2</v>
       </c>
-      <c r="H27" s="79">
+      <c r="H27" s="77">
         <f t="shared" si="3"/>
         <v>12180322</v>
       </c>
-      <c r="I27" s="80">
+      <c r="I27" s="78">
         <f t="shared" si="3"/>
         <v>0.66924846153846151</v>
       </c>
-      <c r="J27" s="110">
+      <c r="J27" s="97">
         <v>442</v>
       </c>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="14"/>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="90" t="s">
         <v>51</v>
       </c>
       <c r="C28" s="10">
         <v>43591</v>
       </c>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92">
+      <c r="D28" s="90"/>
+      <c r="E28" s="25">
         <v>547560</v>
       </c>
-      <c r="F28" s="92">
+      <c r="F28" s="25">
         <v>641262</v>
       </c>
       <c r="G28" s="35">
         <f>F28/A25</f>
         <v>3.5234175824175824E-2</v>
       </c>
-      <c r="H28" s="79">
+      <c r="H28" s="77">
         <f t="shared" si="3"/>
         <v>11539060</v>
       </c>
-      <c r="I28" s="80">
+      <c r="I28" s="78">
         <f t="shared" si="3"/>
         <v>0.63401428571428564</v>
       </c>
-      <c r="J28" s="110"/>
-      <c r="K28" s="66"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="64"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
@@ -2179,16 +2183,16 @@
         <f>F29/A25</f>
         <v>1.5517362637362638E-2</v>
       </c>
-      <c r="H29" s="79">
+      <c r="H29" s="77">
         <f t="shared" si="3"/>
         <v>11256644</v>
       </c>
-      <c r="I29" s="80">
+      <c r="I29" s="78">
         <f t="shared" si="3"/>
         <v>0.61849692307692306</v>
       </c>
-      <c r="J29" s="110"/>
-      <c r="K29" s="67"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="65"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12">
@@ -2212,16 +2216,16 @@
         <f>F30/A25</f>
         <v>6.4490934065934064E-2</v>
       </c>
-      <c r="H30" s="79">
+      <c r="H30" s="77">
         <f t="shared" si="3"/>
         <v>10082909</v>
       </c>
-      <c r="I30" s="80">
+      <c r="I30" s="78">
         <f t="shared" si="3"/>
         <v>0.55400598901098896</v>
       </c>
-      <c r="J30" s="110"/>
-      <c r="K30" s="66"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="64"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12">
@@ -2243,18 +2247,18 @@
         <f>F31/A25</f>
         <v>3.8414120879120876E-2</v>
       </c>
-      <c r="H31" s="79">
+      <c r="H31" s="77">
         <f t="shared" si="3"/>
         <v>9383772</v>
       </c>
-      <c r="I31" s="80">
+      <c r="I31" s="78">
         <f t="shared" si="3"/>
         <v>0.51559186813186808</v>
       </c>
-      <c r="J31" s="110">
+      <c r="J31" s="97">
         <v>437</v>
       </c>
-      <c r="K31" s="66"/>
+      <c r="K31" s="64"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12">
@@ -2276,18 +2280,18 @@
         <f>F32/$A$25</f>
         <v>6.5040879120879122E-2</v>
       </c>
-      <c r="H32" s="79">
+      <c r="H32" s="77">
         <f t="shared" si="3"/>
         <v>8200028</v>
       </c>
-      <c r="I32" s="80">
+      <c r="I32" s="78">
         <f t="shared" si="3"/>
         <v>0.45055098901098894</v>
       </c>
-      <c r="J32" s="110">
+      <c r="J32" s="97">
         <v>441</v>
       </c>
-      <c r="K32" s="66"/>
+      <c r="K32" s="64"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12">
@@ -2309,18 +2313,18 @@
         <f>F33/$A$25</f>
         <v>7.5911538461538461E-2</v>
       </c>
-      <c r="H33" s="79">
+      <c r="H33" s="77">
         <f t="shared" ref="H33" si="4">H32-F33</f>
         <v>6818438</v>
       </c>
-      <c r="I33" s="80">
-        <f t="shared" ref="I33:J33" si="5">I32-G33</f>
+      <c r="I33" s="78">
+        <f t="shared" ref="I33" si="5">I32-G33</f>
         <v>0.37463945054945047</v>
       </c>
-      <c r="J33" s="110">
+      <c r="J33" s="97">
         <v>440</v>
       </c>
-      <c r="K33" s="66"/>
+      <c r="K33" s="64"/>
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12">
@@ -2342,18 +2346,18 @@
         <f>F34/$A$25</f>
         <v>4.6641758241758244E-2</v>
       </c>
-      <c r="H34" s="79">
+      <c r="H34" s="77">
         <f t="shared" ref="H34" si="6">H33-F34</f>
         <v>5969558</v>
       </c>
-      <c r="I34" s="80">
-        <f t="shared" ref="I34:J34" si="7">I33-G34</f>
+      <c r="I34" s="78">
+        <f t="shared" ref="I34" si="7">I33-G34</f>
         <v>0.32799769230769221</v>
       </c>
-      <c r="J34" s="110">
+      <c r="J34" s="97">
         <v>441</v>
       </c>
-      <c r="K34" s="66"/>
+      <c r="K34" s="64"/>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12">
@@ -2364,10 +2368,10 @@
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
       <c r="G35" s="24"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="66"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="64"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12">
@@ -2378,10 +2382,10 @@
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
       <c r="G36" s="24"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="66"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="64"/>
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12">
@@ -2392,10 +2396,10 @@
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
       <c r="G37" s="24"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="66"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="64"/>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" ht="13.8" thickBot="1">
@@ -2406,9 +2410,9 @@
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
       <c r="G38" s="24"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="110"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="97"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
@@ -2419,11 +2423,11 @@
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="20"/>
-      <c r="E39" s="53">
+      <c r="E39" s="99">
         <f>SUM(E25:E38)</f>
         <v>11248736</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="100">
         <f>SUM(F25:F38)</f>
         <v>12230442</v>
       </c>
@@ -2439,9 +2443,9 @@
         <f>1-G39</f>
         <v>0.32799769230769238</v>
       </c>
-      <c r="J39" s="111"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1"/>
@@ -2456,12 +2460,12 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A43" s="106" t="s">
+      <c r="A43" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="108"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2470,10 +2474,10 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="103" t="s">
+      <c r="A44" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="103"/>
+      <c r="B44" s="105"/>
       <c r="C44" s="11" t="s">
         <v>14</v>
       </c>
@@ -2488,12 +2492,12 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="101">
+      <c r="A45" s="103">
         <f>A25-F39</f>
         <v>5969558</v>
       </c>
-      <c r="B45" s="102"/>
-      <c r="C45" s="72">
+      <c r="B45" s="104"/>
+      <c r="C45" s="70">
         <f>1-G39</f>
         <v>0.32799769230769238</v>
       </c>
@@ -2501,15 +2505,15 @@
         <f>(C45/0.8)*100</f>
         <v>40.999711538461547</v>
       </c>
-      <c r="E45" s="90" t="s">
+      <c r="E45" s="88" t="s">
         <v>58</v>
       </c>
       <c r="F45" s="1"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="90"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="90"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="88"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1"/>
@@ -2547,113 +2551,113 @@
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="100"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="101"/>
+      <c r="J49" s="102"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="55"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="56"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="54"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="55"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="56"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="54"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="55"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="56"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="54"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="55"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="56"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="54"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="55"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="56"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="54"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="55"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="55"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="56"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="54"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="55"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="56"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="54"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="55"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="56"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="54"/>
     </row>
     <row r="59" spans="1:10" ht="15.6">
       <c r="A59" s="1"/>
-      <c r="B59" s="107"/>
-      <c r="C59" s="107"/>
-      <c r="D59" s="108"/>
-      <c r="E59" s="60"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="58"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -2661,40 +2665,40 @@
       <c r="J59" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="99"/>
-      <c r="J60" s="100"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="101"/>
+      <c r="J60" s="102"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="55"/>
+      <c r="A61" s="53"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="104"/>
-      <c r="J61" s="104"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="106"/>
+      <c r="J61" s="106"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="55"/>
+      <c r="A62" s="53"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="104"/>
-      <c r="J62" s="104"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="106"/>
+      <c r="J62" s="106"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1"/>
@@ -2707,12 +2711,12 @@
       <c r="H63" s="1"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="99"/>
-      <c r="C68" s="100"/>
+      <c r="B68" s="101"/>
+      <c r="C68" s="102"/>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="99"/>
-      <c r="C75" s="100"/>
+      <c r="B75" s="101"/>
+      <c r="C75" s="102"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 1 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 1 л.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Банки\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBFDCD5-743E-4032-B79C-3BD2729B3F78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="12" windowWidth="18780" windowHeight="13296"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$45</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -215,7 +223,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -223,7 +231,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -1050,6 +1058,20 @@
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1059,20 +1081,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1170,6 +1178,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1205,6 +1230,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1380,53 +1422,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="111" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1434,7 +1476,7 @@
       <c r="L2" s="29"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1446,7 +1488,7 @@
       <c r="K3" s="29"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
@@ -1484,7 +1526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="41">
         <v>1</v>
       </c>
@@ -1511,7 +1553,7 @@
       <c r="K5" s="42"/>
       <c r="L5" s="67"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="91">
         <f>A5+1</f>
         <v>2</v>
@@ -1539,7 +1581,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="68"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="91">
         <f t="shared" ref="A7:A21" si="1">A6+1</f>
         <v>3</v>
@@ -1567,7 +1609,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="68"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="91">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1595,7 +1637,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="68"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="91">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1625,7 +1667,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="68"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="91">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1655,7 +1697,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="68"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="91">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1683,7 +1725,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="68"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="91">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1711,7 +1753,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="68"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="91">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1740,7 +1782,7 @@
       <c r="L13" s="68"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="91">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1769,7 +1811,7 @@
       <c r="L14" s="68"/>
       <c r="M14" s="26"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="91">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1801,7 +1843,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="68"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="91">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1831,7 +1873,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="68"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1">
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="91">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1861,7 +1903,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="68"/>
     </row>
-    <row r="18" spans="1:12" ht="14.25" customHeight="1">
+    <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="91">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1891,7 +1933,7 @@
       <c r="K18" s="83"/>
       <c r="L18" s="87"/>
     </row>
-    <row r="19" spans="1:12" ht="14.25" customHeight="1">
+    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="91">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1919,7 +1961,7 @@
       <c r="K19" s="83"/>
       <c r="L19" s="87"/>
     </row>
-    <row r="20" spans="1:12" ht="14.25" customHeight="1">
+    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="91">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1947,7 +1989,7 @@
       <c r="K20" s="83"/>
       <c r="L20" s="87"/>
     </row>
-    <row r="21" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
+    <row r="21" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="96">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1977,7 +2019,7 @@
       <c r="K21" s="45"/>
       <c r="L21" s="82"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="60"/>
       <c r="B22" s="59"/>
       <c r="C22" s="1"/>
@@ -1989,7 +2031,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="16.2" thickBot="1">
+    <row r="23" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="61" t="s">
         <v>8</v>
@@ -2005,7 +2047,7 @@
       <c r="K23" s="62"/>
       <c r="L23" s="62"/>
     </row>
-    <row r="24" spans="1:12" ht="79.8" thickBot="1">
+    <row r="24" spans="1:12" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
         <v>19</v>
       </c>
@@ -2039,7 +2081,7 @@
       <c r="K24" s="63"/>
       <c r="L24" s="63"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="69">
         <f>E5*700000</f>
         <v>18200000</v>
@@ -2067,7 +2109,7 @@
       <c r="K25" s="56"/>
       <c r="L25" s="56"/>
     </row>
-    <row r="26" spans="1:12" ht="12.75" customHeight="1">
+    <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="44"/>
       <c r="B26" s="79" t="s">
         <v>49</v>
@@ -2100,7 +2142,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="12.75" customHeight="1">
+    <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="10" t="s">
         <v>50</v>
@@ -2133,7 +2175,7 @@
       <c r="K27" s="56"/>
       <c r="L27" s="56"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="90" t="s">
         <v>51</v>
@@ -2164,7 +2206,7 @@
       <c r="K28" s="64"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="10" t="s">
         <v>52</v>
@@ -2195,7 +2237,7 @@
       <c r="K29" s="65"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="10" t="s">
         <v>53</v>
@@ -2228,7 +2270,7 @@
       <c r="K30" s="64"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="10" t="s">
         <v>55</v>
@@ -2261,7 +2303,7 @@
       <c r="K31" s="64"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="10" t="s">
         <v>56</v>
@@ -2294,7 +2336,7 @@
       <c r="K32" s="64"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="10" t="s">
         <v>59</v>
@@ -2327,7 +2369,7 @@
       <c r="K33" s="64"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="10" t="s">
         <v>60</v>
@@ -2360,7 +2402,7 @@
       <c r="K34" s="64"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -2374,7 +2416,7 @@
       <c r="K35" s="64"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -2388,7 +2430,7 @@
       <c r="K36" s="64"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -2402,7 +2444,7 @@
       <c r="K37" s="64"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" ht="13.8" thickBot="1">
+    <row r="38" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -2416,7 +2458,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" ht="13.8" thickBot="1">
+    <row r="39" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>24</v>
       </c>
@@ -2447,7 +2489,7 @@
       <c r="K39" s="66"/>
       <c r="L39" s="66"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2459,13 +2501,13 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A43" s="108" t="s">
+    <row r="43" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="108"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="108"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2473,11 +2515,11 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="105" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="105"/>
+      <c r="B44" s="111"/>
       <c r="C44" s="11" t="s">
         <v>14</v>
       </c>
@@ -2491,12 +2533,12 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="103">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="109">
         <f>A25-F39</f>
         <v>5969558</v>
       </c>
-      <c r="B45" s="104"/>
+      <c r="B45" s="110"/>
       <c r="C45" s="70">
         <f>1-G39</f>
         <v>0.32799769230769238</v>
@@ -2515,7 +2557,7 @@
       <c r="K45" s="88"/>
       <c r="L45" s="88"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2523,7 +2565,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2538,7 +2580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.6">
+    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2550,7 +2592,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="52"/>
       <c r="B49" s="52"/>
       <c r="C49" s="52"/>
@@ -2559,10 +2601,10 @@
       <c r="F49" s="52"/>
       <c r="G49" s="52"/>
       <c r="H49" s="52"/>
-      <c r="I49" s="101"/>
-      <c r="J49" s="102"/>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="I49" s="107"/>
+      <c r="J49" s="108"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="53"/>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
@@ -2572,7 +2614,7 @@
       <c r="G50" s="55"/>
       <c r="H50" s="54"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="53"/>
       <c r="B51" s="54"/>
       <c r="C51" s="54"/>
@@ -2582,7 +2624,7 @@
       <c r="G51" s="55"/>
       <c r="H51" s="54"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="53"/>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -2592,7 +2634,7 @@
       <c r="G52" s="55"/>
       <c r="H52" s="54"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="53"/>
       <c r="B53" s="54"/>
       <c r="C53" s="54"/>
@@ -2602,7 +2644,7 @@
       <c r="G53" s="55"/>
       <c r="H53" s="54"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="53"/>
       <c r="B54" s="54"/>
       <c r="C54" s="54"/>
@@ -2612,7 +2654,7 @@
       <c r="G54" s="55"/>
       <c r="H54" s="54"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="53"/>
       <c r="B55" s="54"/>
       <c r="C55" s="56"/>
@@ -2622,7 +2664,7 @@
       <c r="G55" s="56"/>
       <c r="H55" s="56"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="53"/>
       <c r="B56" s="54"/>
       <c r="C56" s="54"/>
@@ -2632,7 +2674,7 @@
       <c r="G56" s="55"/>
       <c r="H56" s="54"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="53"/>
       <c r="B57" s="54"/>
       <c r="C57" s="54"/>
@@ -2642,7 +2684,7 @@
       <c r="G57" s="55"/>
       <c r="H57" s="54"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="53"/>
       <c r="B58" s="54"/>
       <c r="C58" s="54"/>
@@ -2652,11 +2694,11 @@
       <c r="G58" s="55"/>
       <c r="H58" s="54"/>
     </row>
-    <row r="59" spans="1:10" ht="15.6">
+    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="109"/>
-      <c r="C59" s="109"/>
-      <c r="D59" s="110"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="105"/>
       <c r="E59" s="58"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -2664,7 +2706,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="52"/>
       <c r="B60" s="52"/>
       <c r="C60" s="52"/>
@@ -2673,10 +2715,10 @@
       <c r="F60" s="52"/>
       <c r="G60" s="52"/>
       <c r="H60" s="52"/>
-      <c r="I60" s="101"/>
-      <c r="J60" s="102"/>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="I60" s="107"/>
+      <c r="J60" s="108"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="53"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2685,10 +2727,10 @@
       <c r="F61" s="55"/>
       <c r="G61" s="55"/>
       <c r="H61" s="54"/>
-      <c r="I61" s="106"/>
-      <c r="J61" s="106"/>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="I61" s="103"/>
+      <c r="J61" s="103"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="53"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2697,10 +2739,10 @@
       <c r="F62" s="56"/>
       <c r="G62" s="56"/>
       <c r="H62" s="56"/>
-      <c r="I62" s="106"/>
-      <c r="J62" s="106"/>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="I62" s="103"/>
+      <c r="J62" s="103"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2710,24 +2752,19 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="101"/>
-      <c r="C68" s="102"/>
-    </row>
-    <row r="75" spans="2:3">
-      <c r="B75" s="101"/>
-      <c r="C75" s="102"/>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="107"/>
+      <c r="C68" s="108"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75" s="107"/>
+      <c r="C75" s="108"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A44:B44"/>
@@ -2735,11 +2772,16 @@
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="I60:J60"/>
     <mergeCell ref="I61:J61"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="82" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="45" max="12" man="1"/>
@@ -2748,12 +2790,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2762,24 +2804,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 1 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 1 л.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Банки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBFDCD5-743E-4032-B79C-3BD2729B3F78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0105DC-5F90-4B1D-9DF8-DD38C3B6B42D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1058,20 +1058,6 @@
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1081,6 +1067,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1431,7 +1431,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
@@ -1446,29 +1446,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -2502,12 +2502,12 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="102" t="s">
+      <c r="A43" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="102"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="108"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2516,10 +2516,10 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="111" t="s">
+      <c r="A44" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="111"/>
+      <c r="B44" s="105"/>
       <c r="C44" s="11" t="s">
         <v>14</v>
       </c>
@@ -2534,11 +2534,11 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="109">
+      <c r="A45" s="103">
         <f>A25-F39</f>
         <v>5969558</v>
       </c>
-      <c r="B45" s="110"/>
+      <c r="B45" s="104"/>
       <c r="C45" s="70">
         <f>1-G39</f>
         <v>0.32799769230769238</v>
@@ -2601,8 +2601,8 @@
       <c r="F49" s="52"/>
       <c r="G49" s="52"/>
       <c r="H49" s="52"/>
-      <c r="I49" s="107"/>
-      <c r="J49" s="108"/>
+      <c r="I49" s="101"/>
+      <c r="J49" s="102"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="53"/>
@@ -2696,9 +2696,9 @@
     </row>
     <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="104"/>
-      <c r="C59" s="104"/>
-      <c r="D59" s="105"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="110"/>
       <c r="E59" s="58"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -2715,8 +2715,8 @@
       <c r="F60" s="52"/>
       <c r="G60" s="52"/>
       <c r="H60" s="52"/>
-      <c r="I60" s="107"/>
-      <c r="J60" s="108"/>
+      <c r="I60" s="101"/>
+      <c r="J60" s="102"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="53"/>
@@ -2727,8 +2727,8 @@
       <c r="F61" s="55"/>
       <c r="G61" s="55"/>
       <c r="H61" s="54"/>
-      <c r="I61" s="103"/>
-      <c r="J61" s="103"/>
+      <c r="I61" s="106"/>
+      <c r="J61" s="106"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="53"/>
@@ -2739,8 +2739,8 @@
       <c r="F62" s="56"/>
       <c r="G62" s="56"/>
       <c r="H62" s="56"/>
-      <c r="I62" s="103"/>
-      <c r="J62" s="103"/>
+      <c r="I62" s="106"/>
+      <c r="J62" s="106"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
@@ -2753,18 +2753,23 @@
       <c r="H63" s="1"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="107"/>
-      <c r="C68" s="108"/>
+      <c r="B68" s="101"/>
+      <c r="C68" s="102"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B75" s="107"/>
-      <c r="C75" s="108"/>
+      <c r="B75" s="101"/>
+      <c r="C75" s="102"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A44:B44"/>
@@ -2772,11 +2777,6 @@
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="I60:J60"/>
     <mergeCell ref="I61:J61"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 1 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 1 л.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Банки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0105DC-5F90-4B1D-9DF8-DD38C3B6B42D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056E0F80-C1D1-4C1D-A648-3197C43FE8F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>№Поз</t>
   </si>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t>Вес, гр</t>
+  </si>
+  <si>
+    <t>02.07.2021 СКО</t>
+  </si>
+  <si>
+    <t>06/07/2019 twist</t>
   </si>
 </sst>
 </file>
@@ -1425,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2047,7 +2053,7 @@
       <c r="K23" s="62"/>
       <c r="L23" s="62"/>
     </row>
-    <row r="24" spans="1:12" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
         <v>19</v>
       </c>
@@ -2089,21 +2095,23 @@
       <c r="B25" s="34"/>
       <c r="C25" s="76"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="77"/>
+      <c r="E25" s="77">
+        <v>5096000</v>
+      </c>
       <c r="F25" s="77">
-        <v>5096000</v>
+        <v>5475560</v>
       </c>
       <c r="G25" s="35">
         <f>F25/A$25</f>
-        <v>0.28000000000000003</v>
+        <v>0.30085494505494503</v>
       </c>
       <c r="H25" s="77">
         <f>A25-F25</f>
-        <v>13104000</v>
+        <v>12724440</v>
       </c>
       <c r="I25" s="78">
         <f>1-G25</f>
-        <v>0.72</v>
+        <v>0.69914505494505497</v>
       </c>
       <c r="J25" s="97"/>
       <c r="K25" s="56"/>
@@ -2119,7 +2127,7 @@
       </c>
       <c r="D26" s="79"/>
       <c r="E26" s="89">
-        <v>5475560</v>
+        <v>619236</v>
       </c>
       <c r="F26" s="89">
         <v>641262</v>
@@ -2130,11 +2138,11 @@
       </c>
       <c r="H26" s="77">
         <f t="shared" ref="H26:I32" si="3">H25-F26</f>
-        <v>12462738</v>
+        <v>12083178</v>
       </c>
       <c r="I26" s="78">
         <f t="shared" si="3"/>
-        <v>0.6847658241758241</v>
+        <v>0.66391087912087909</v>
       </c>
       <c r="J26" s="97">
         <v>437</v>
@@ -2163,11 +2171,11 @@
       </c>
       <c r="H27" s="77">
         <f t="shared" si="3"/>
-        <v>12180322</v>
+        <v>11800762</v>
       </c>
       <c r="I27" s="78">
         <f t="shared" si="3"/>
-        <v>0.66924846153846151</v>
+        <v>0.64839351648351651</v>
       </c>
       <c r="J27" s="97">
         <v>442</v>
@@ -2196,11 +2204,11 @@
       </c>
       <c r="H28" s="77">
         <f t="shared" si="3"/>
-        <v>11539060</v>
+        <v>11159500</v>
       </c>
       <c r="I28" s="78">
         <f t="shared" si="3"/>
-        <v>0.63401428571428564</v>
+        <v>0.61315934065934063</v>
       </c>
       <c r="J28" s="97"/>
       <c r="K28" s="64"/>
@@ -2227,11 +2235,11 @@
       </c>
       <c r="H29" s="77">
         <f t="shared" si="3"/>
-        <v>11256644</v>
+        <v>10877084</v>
       </c>
       <c r="I29" s="78">
         <f t="shared" si="3"/>
-        <v>0.61849692307692306</v>
+        <v>0.59764197802197805</v>
       </c>
       <c r="J29" s="97"/>
       <c r="K29" s="65"/>
@@ -2260,11 +2268,11 @@
       </c>
       <c r="H30" s="77">
         <f t="shared" si="3"/>
-        <v>10082909</v>
+        <v>9703349</v>
       </c>
       <c r="I30" s="78">
         <f t="shared" si="3"/>
-        <v>0.55400598901098896</v>
+        <v>0.53315104395604396</v>
       </c>
       <c r="J30" s="97"/>
       <c r="K30" s="64"/>
@@ -2291,11 +2299,11 @@
       </c>
       <c r="H31" s="77">
         <f t="shared" si="3"/>
-        <v>9383772</v>
+        <v>9004212</v>
       </c>
       <c r="I31" s="78">
         <f t="shared" si="3"/>
-        <v>0.51559186813186808</v>
+        <v>0.49473692307692307</v>
       </c>
       <c r="J31" s="97">
         <v>437</v>
@@ -2324,11 +2332,11 @@
       </c>
       <c r="H32" s="77">
         <f t="shared" si="3"/>
-        <v>8200028</v>
+        <v>7820468</v>
       </c>
       <c r="I32" s="78">
         <f t="shared" si="3"/>
-        <v>0.45055098901098894</v>
+        <v>0.42969604395604394</v>
       </c>
       <c r="J32" s="97">
         <v>441</v>
@@ -2357,11 +2365,11 @@
       </c>
       <c r="H33" s="77">
         <f t="shared" ref="H33" si="4">H32-F33</f>
-        <v>6818438</v>
+        <v>6438878</v>
       </c>
       <c r="I33" s="78">
         <f t="shared" ref="I33" si="5">I32-G33</f>
-        <v>0.37463945054945047</v>
+        <v>0.35378450549450546</v>
       </c>
       <c r="J33" s="97">
         <v>440</v>
@@ -2390,11 +2398,11 @@
       </c>
       <c r="H34" s="77">
         <f t="shared" ref="H34" si="6">H33-F34</f>
-        <v>5969558</v>
+        <v>5589998</v>
       </c>
       <c r="I34" s="78">
         <f t="shared" ref="I34" si="7">I33-G34</f>
-        <v>0.32799769230769221</v>
+        <v>0.30714274725274721</v>
       </c>
       <c r="J34" s="97">
         <v>441</v>
@@ -2404,29 +2412,67 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
+      <c r="B35" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="16">
+        <v>44382</v>
+      </c>
       <c r="D35" s="17"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="97"/>
+      <c r="E35" s="25">
+        <v>641520</v>
+      </c>
+      <c r="F35" s="25">
+        <v>686961</v>
+      </c>
+      <c r="G35" s="24">
+        <f t="shared" ref="G35:G36" si="8">F35/$A$25</f>
+        <v>3.7745109890109887E-2</v>
+      </c>
+      <c r="H35" s="77">
+        <f t="shared" ref="H35:H36" si="9">H34-F35</f>
+        <v>4903037</v>
+      </c>
+      <c r="I35" s="78">
+        <f t="shared" ref="I35:I36" si="10">I34-G35</f>
+        <v>0.26939763736263733</v>
+      </c>
+      <c r="J35" s="97">
+        <v>439</v>
+      </c>
       <c r="K35" s="64"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
+      <c r="B36" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="16">
+        <v>44384</v>
+      </c>
       <c r="D36" s="17"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="97"/>
+      <c r="E36" s="25">
+        <v>316440</v>
+      </c>
+      <c r="F36" s="25">
+        <v>348930</v>
+      </c>
+      <c r="G36" s="24">
+        <f t="shared" si="8"/>
+        <v>1.9171978021978023E-2</v>
+      </c>
+      <c r="H36" s="77">
+        <f t="shared" si="9"/>
+        <v>4554107</v>
+      </c>
+      <c r="I36" s="78">
+        <f t="shared" si="10"/>
+        <v>0.25022565934065932</v>
+      </c>
+      <c r="J36" s="97">
+        <v>442</v>
+      </c>
       <c r="K36" s="64"/>
       <c r="L36" s="1"/>
     </row>
@@ -2467,23 +2513,23 @@
       <c r="D39" s="20"/>
       <c r="E39" s="99">
         <f>SUM(E25:E38)</f>
-        <v>11248736</v>
+        <v>12446372</v>
       </c>
       <c r="F39" s="100">
         <f>SUM(F25:F38)</f>
-        <v>12230442</v>
+        <v>13645893</v>
       </c>
       <c r="G39" s="23">
         <f>SUM(G25:G38)</f>
-        <v>0.67200230769230762</v>
+        <v>0.74977434065934057</v>
       </c>
       <c r="H39" s="21">
         <f>A25-F39</f>
-        <v>5969558</v>
+        <v>4554107</v>
       </c>
       <c r="I39" s="27">
         <f>1-G39</f>
-        <v>0.32799769230769238</v>
+        <v>0.25022565934065943</v>
       </c>
       <c r="J39" s="98"/>
       <c r="K39" s="66"/>
@@ -2536,16 +2582,16 @@
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="103">
         <f>A25-F39</f>
-        <v>5969558</v>
+        <v>4554107</v>
       </c>
       <c r="B45" s="104"/>
       <c r="C45" s="70">
         <f>1-G39</f>
-        <v>0.32799769230769238</v>
+        <v>0.25022565934065943</v>
       </c>
       <c r="D45" s="22">
         <f>(C45/0.8)*100</f>
-        <v>40.999711538461547</v>
+        <v>31.278207417582426</v>
       </c>
       <c r="E45" s="88" t="s">
         <v>58</v>
